--- a/2024071601.xlsx
+++ b/2024071601.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\min\Desktop\icon\github\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2023D370-3FA7-47CB-A8AD-BEABCCC625FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4DBF18C-E877-4E96-9276-16CEE9C03422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="420" yWindow="-14385" windowWidth="21600" windowHeight="13470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="데이터" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -82,43 +95,45 @@
     <t>○ 통계표명</t>
   </si>
   <si>
+    <t>○ 조회기간</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[년] 2012~2022  </t>
+  </si>
+  <si>
+    <t>○ 출처</t>
+  </si>
+  <si>
+    <t>○ 자료다운일자</t>
+  </si>
+  <si>
+    <t>2024.07.03 12:41</t>
+  </si>
+  <si>
+    <t>○ 통계표URL</t>
+  </si>
+  <si>
+    <t>https://kosis.kr/statHtml/statHtml.do?orgId=339&amp;tblId=DT_339001_Y009&amp;conn_path=I3</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>* KOSIS 개편 시 통계표 URL은 달라질 수 있음</t>
+  </si>
+  <si>
+    <t>○ 단위</t>
+  </si>
+  <si>
+    <t>1,000 toe</t>
+  </si>
+  <si>
     <t>부문별 최종소비</t>
-  </si>
-  <si>
-    <t>○ 조회기간</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[년] 2012~2022  </t>
-  </si>
-  <si>
-    <t>○ 출처</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>「에너지수급통계」, 에너지경제연구원</t>
-  </si>
-  <si>
-    <t>○ 자료다운일자</t>
-  </si>
-  <si>
-    <t>2024.07.03 12:41</t>
-  </si>
-  <si>
-    <t>○ 통계표URL</t>
-  </si>
-  <si>
-    <t>https://kosis.kr/statHtml/statHtml.do?orgId=339&amp;tblId=DT_339001_Y009&amp;conn_path=I3</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>* KOSIS 개편 시 통계표 URL은 달라질 수 있음</t>
-  </si>
-  <si>
-    <t>○ 단위</t>
-  </si>
-  <si>
-    <t>1,000 toe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -210,15 +225,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -559,7 +574,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -577,55 +592,55 @@
         <v>19</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
